--- a/data_year/zb/对外经济贸易/按行业分外商直接投资额/合同项目.xlsx
+++ b/data_year/zb/对外经济贸易/按行业分外商直接投资额/合同项目.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1271 +538,847 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>396</v>
+      </c>
+      <c r="C2" t="n">
+        <v>579</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1046</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
       <c r="F2" t="n">
-        <v>821</v>
+        <v>929</v>
       </c>
       <c r="G2" t="n">
-        <v>15988</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>11047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
       <c r="I2" t="n">
-        <v>2679</v>
+        <v>217</v>
       </c>
       <c r="J2" t="n">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="K2" t="n">
-        <v>684</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+        <v>689</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6786</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>168</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143</v>
+      </c>
       <c r="P2" t="n">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>210</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1299</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3418</v>
+      </c>
       <c r="S2" t="n">
-        <v>22347</v>
+        <v>27420</v>
       </c>
       <c r="T2" t="n">
-        <v>162</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="U2" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>297</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>513</v>
+      </c>
+      <c r="D3" t="n">
+        <v>993</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="G3" t="n">
-        <v>19106</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>11114</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>212</v>
+      </c>
       <c r="J3" t="n">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="K3" t="n">
-        <v>820</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+        <v>466</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7259</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>152</v>
+      </c>
+      <c r="O3" t="n">
+        <v>151</v>
+      </c>
       <c r="P3" t="n">
-        <v>136</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1357</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3518</v>
+      </c>
       <c r="S3" t="n">
-        <v>26140</v>
+        <v>27717</v>
       </c>
       <c r="T3" t="n">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>397</v>
+      </c>
+      <c r="C4" t="n">
+        <v>505</v>
+      </c>
+      <c r="D4" t="n">
+        <v>926</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
       <c r="F4" t="n">
-        <v>975</v>
+        <v>882</v>
       </c>
       <c r="G4" t="n">
-        <v>24930</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>8970</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>192</v>
+      </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>209</v>
       </c>
       <c r="K4" t="n">
-        <v>1316</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+        <v>472</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7029</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>145</v>
+      </c>
+      <c r="O4" t="n">
+        <v>122</v>
+      </c>
       <c r="P4" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1287</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3229</v>
+      </c>
       <c r="S4" t="n">
-        <v>34171</v>
+        <v>24934</v>
       </c>
       <c r="T4" t="n">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="U4" t="n">
-        <v>17</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="C5" t="n">
+        <v>436</v>
+      </c>
+      <c r="D5" t="n">
+        <v>796</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1116</v>
+        <v>757</v>
       </c>
       <c r="G5" t="n">
-        <v>29281</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>6504</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I5" t="n">
+        <v>166</v>
+      </c>
       <c r="J5" t="n">
-        <v>396</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>1553</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+        <v>530</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7349</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22</v>
+      </c>
+      <c r="N5" t="n">
+        <v>151</v>
+      </c>
+      <c r="O5" t="n">
+        <v>107</v>
+      </c>
       <c r="P5" t="n">
-        <v>333</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1241</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3359</v>
+      </c>
       <c r="S5" t="n">
-        <v>41081</v>
+        <v>22819</v>
       </c>
       <c r="T5" t="n">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>376</v>
+      </c>
+      <c r="C6" t="n">
+        <v>567</v>
+      </c>
+      <c r="D6" t="n">
+        <v>981</v>
+      </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>719</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5178</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>181</v>
+      </c>
+      <c r="J6" t="n">
+        <v>230</v>
+      </c>
+      <c r="K6" t="n">
+        <v>446</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7978</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" t="n">
+        <v>194</v>
+      </c>
+      <c r="O6" t="n">
+        <v>99</v>
+      </c>
+      <c r="P6" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1611</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3963</v>
+      </c>
       <c r="S6" t="n">
-        <v>43664</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+        <v>23794</v>
+      </c>
+      <c r="T6" t="n">
+        <v>35</v>
+      </c>
+      <c r="U6" t="n">
+        <v>970</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>734</v>
+        <v>449</v>
       </c>
       <c r="C7" t="n">
-        <v>1207</v>
+        <v>611</v>
       </c>
       <c r="D7" t="n">
-        <v>1493</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>1311</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>1058</v>
+        <v>609</v>
       </c>
       <c r="G7" t="n">
-        <v>28928</v>
+        <v>4507</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I7" t="n">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="J7" t="n">
-        <v>457</v>
+        <v>176</v>
       </c>
       <c r="K7" t="n">
-        <v>2120</v>
+        <v>387</v>
       </c>
       <c r="L7" t="n">
-        <v>2602</v>
+        <v>9156</v>
       </c>
       <c r="M7" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="O7" t="n">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="P7" t="n">
-        <v>390</v>
+        <v>264</v>
       </c>
       <c r="Q7" t="n">
-        <v>926</v>
+        <v>1970</v>
       </c>
       <c r="R7" t="n">
-        <v>2981</v>
+        <v>4465</v>
       </c>
       <c r="S7" t="n">
-        <v>44001</v>
+        <v>26584</v>
       </c>
       <c r="T7" t="n">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="U7" t="n">
-        <v>40</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>665</v>
+        <v>425</v>
       </c>
       <c r="C8" t="n">
-        <v>1060</v>
+        <v>620</v>
       </c>
       <c r="D8" t="n">
-        <v>1378</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>1463</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
       <c r="F8" t="n">
-        <v>951</v>
+        <v>558</v>
       </c>
       <c r="G8" t="n">
-        <v>24790</v>
+        <v>4013</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I8" t="n">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="J8" t="n">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="K8" t="n">
-        <v>2398</v>
+        <v>378</v>
       </c>
       <c r="L8" t="n">
-        <v>4664</v>
+        <v>9399</v>
       </c>
       <c r="M8" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="N8" t="n">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="O8" t="n">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="P8" t="n">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="Q8" t="n">
-        <v>1035</v>
+        <v>2444</v>
       </c>
       <c r="R8" t="n">
-        <v>2885</v>
+        <v>4631</v>
       </c>
       <c r="S8" t="n">
-        <v>41473</v>
+        <v>27908</v>
       </c>
       <c r="T8" t="n">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="U8" t="n">
-        <v>52</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>658</v>
+        <v>517</v>
       </c>
       <c r="C9" t="n">
-        <v>938</v>
+        <v>703</v>
       </c>
       <c r="D9" t="n">
-        <v>1392</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>3169</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
       <c r="F9" t="n">
-        <v>1048</v>
+        <v>706</v>
       </c>
       <c r="G9" t="n">
-        <v>19193</v>
+        <v>4986</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="I9" t="n">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>633</v>
       </c>
       <c r="K9" t="n">
-        <v>1444</v>
+        <v>737</v>
       </c>
       <c r="L9" t="n">
-        <v>6338</v>
+        <v>12283</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="N9" t="n">
-        <v>207</v>
+        <v>476</v>
       </c>
       <c r="O9" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P9" t="n">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716</v>
+        <v>3391</v>
       </c>
       <c r="R9" t="n">
-        <v>3539</v>
+        <v>5087</v>
       </c>
       <c r="S9" t="n">
-        <v>37871</v>
+        <v>35662</v>
       </c>
       <c r="T9" t="n">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="U9" t="n">
-        <v>51</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523</v>
+        <v>754</v>
       </c>
       <c r="C10" t="n">
-        <v>633</v>
+        <v>854</v>
       </c>
       <c r="D10" t="n">
-        <v>1286</v>
+        <v>7222</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>917</v>
+        <v>741</v>
       </c>
       <c r="G10" t="n">
-        <v>11568</v>
+        <v>6152</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I10" t="n">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="J10" t="n">
-        <v>262</v>
+        <v>1449</v>
       </c>
       <c r="K10" t="n">
-        <v>452</v>
+        <v>1053</v>
       </c>
       <c r="L10" t="n">
-        <v>5854</v>
+        <v>22853</v>
       </c>
       <c r="M10" t="n">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="N10" t="n">
-        <v>170</v>
+        <v>749</v>
       </c>
       <c r="O10" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P10" t="n">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="Q10" t="n">
-        <v>1839</v>
+        <v>5819</v>
       </c>
       <c r="R10" t="n">
-        <v>3138</v>
+        <v>9099</v>
       </c>
       <c r="S10" t="n">
-        <v>27514</v>
+        <v>60560</v>
       </c>
       <c r="T10" t="n">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="U10" t="n">
-        <v>25</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395</v>
+        <v>591</v>
       </c>
       <c r="C11" t="n">
-        <v>502</v>
+        <v>835</v>
       </c>
       <c r="D11" t="n">
-        <v>1081</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>4295</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
       <c r="F11" t="n">
-        <v>896</v>
+        <v>495</v>
       </c>
       <c r="G11" t="n">
-        <v>9767</v>
+        <v>5396</v>
       </c>
       <c r="H11" t="n">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I11" t="n">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="J11" t="n">
-        <v>220</v>
+        <v>557</v>
       </c>
       <c r="K11" t="n">
-        <v>569</v>
+        <v>1050</v>
       </c>
       <c r="L11" t="n">
-        <v>5100</v>
+        <v>13837</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="N11" t="n">
-        <v>158</v>
+        <v>804</v>
       </c>
       <c r="O11" t="n">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="P11" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="Q11" t="n">
-        <v>1066</v>
+        <v>5183</v>
       </c>
       <c r="R11" t="n">
-        <v>2864</v>
+        <v>5777</v>
       </c>
       <c r="S11" t="n">
-        <v>23435</v>
+        <v>40910</v>
       </c>
       <c r="T11" t="n">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="U11" t="n">
-        <v>52</v>
+        <v>865</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>396</v>
+        <v>592</v>
       </c>
       <c r="C12" t="n">
-        <v>579</v>
+        <v>804</v>
       </c>
       <c r="D12" t="n">
-        <v>1046</v>
+        <v>3521</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>929</v>
+        <v>493</v>
       </c>
       <c r="G12" t="n">
-        <v>11047</v>
+        <v>3732</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I12" t="n">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="J12" t="n">
-        <v>276</v>
+        <v>602</v>
       </c>
       <c r="K12" t="n">
-        <v>689</v>
+        <v>1190</v>
       </c>
       <c r="L12" t="n">
-        <v>6786</v>
+        <v>10812</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="N12" t="n">
-        <v>168</v>
+        <v>1407</v>
       </c>
       <c r="O12" t="n">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="P12" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="Q12" t="n">
-        <v>1299</v>
+        <v>6252</v>
       </c>
       <c r="R12" t="n">
-        <v>3418</v>
+        <v>7513</v>
       </c>
       <c r="S12" t="n">
-        <v>27406</v>
+        <v>38578</v>
       </c>
       <c r="T12" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="U12" t="n">
-        <v>85</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413</v>
+        <v>693</v>
       </c>
       <c r="C13" t="n">
-        <v>513</v>
+        <v>1139</v>
       </c>
       <c r="D13" t="n">
-        <v>993</v>
+        <v>4053</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>865</v>
+        <v>491</v>
       </c>
       <c r="G13" t="n">
-        <v>11114</v>
+        <v>4455</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="I13" t="n">
-        <v>212</v>
+        <v>522</v>
       </c>
       <c r="J13" t="n">
-        <v>215</v>
+        <v>701</v>
       </c>
       <c r="K13" t="n">
-        <v>466</v>
+        <v>1125</v>
       </c>
       <c r="L13" t="n">
-        <v>7259</v>
+        <v>13379</v>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="N13" t="n">
-        <v>152</v>
+        <v>2107</v>
       </c>
       <c r="O13" t="n">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="P13" t="n">
-        <v>214</v>
+        <v>465</v>
       </c>
       <c r="Q13" t="n">
-        <v>1357</v>
+        <v>8245</v>
       </c>
       <c r="R13" t="n">
-        <v>3518</v>
+        <v>9290</v>
       </c>
       <c r="S13" t="n">
-        <v>27712</v>
+        <v>47647</v>
       </c>
       <c r="T13" t="n">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="U13" t="n">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>397</v>
-      </c>
-      <c r="C14" t="n">
-        <v>505</v>
-      </c>
-      <c r="D14" t="n">
-        <v>926</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>882</v>
+        <v>420</v>
       </c>
       <c r="G14" t="n">
-        <v>8970</v>
-      </c>
-      <c r="H14" t="n">
-        <v>24</v>
-      </c>
+        <v>3570</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>192</v>
-      </c>
-      <c r="J14" t="n">
-        <v>209</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>472</v>
+        <v>581</v>
       </c>
       <c r="L14" t="n">
-        <v>7029</v>
-      </c>
-      <c r="M14" t="n">
-        <v>11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>145</v>
-      </c>
-      <c r="O14" t="n">
-        <v>122</v>
-      </c>
+        <v>10894</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>187</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1287</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>3229</v>
+        <v>7473</v>
       </c>
       <c r="S14" t="n">
-        <v>24925</v>
-      </c>
-      <c r="T14" t="n">
-        <v>53</v>
-      </c>
-      <c r="U14" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>401</v>
-      </c>
-      <c r="C15" t="n">
-        <v>436</v>
-      </c>
-      <c r="D15" t="n">
-        <v>796</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>757</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6504</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18</v>
-      </c>
-      <c r="I15" t="n">
-        <v>166</v>
-      </c>
-      <c r="J15" t="n">
-        <v>180</v>
-      </c>
-      <c r="K15" t="n">
-        <v>530</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7349</v>
-      </c>
-      <c r="M15" t="n">
-        <v>22</v>
-      </c>
-      <c r="N15" t="n">
-        <v>151</v>
-      </c>
-      <c r="O15" t="n">
-        <v>107</v>
-      </c>
-      <c r="P15" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1241</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3359</v>
-      </c>
-      <c r="S15" t="n">
-        <v>22773</v>
-      </c>
-      <c r="T15" t="n">
-        <v>47</v>
-      </c>
-      <c r="U15" t="n">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>376</v>
-      </c>
-      <c r="C16" t="n">
-        <v>567</v>
-      </c>
-      <c r="D16" t="n">
-        <v>981</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>719</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5178</v>
-      </c>
-      <c r="H16" t="n">
-        <v>22</v>
-      </c>
-      <c r="I16" t="n">
-        <v>181</v>
-      </c>
-      <c r="J16" t="n">
-        <v>230</v>
-      </c>
-      <c r="K16" t="n">
-        <v>446</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7978</v>
-      </c>
-      <c r="M16" t="n">
-        <v>20</v>
-      </c>
-      <c r="N16" t="n">
-        <v>194</v>
-      </c>
-      <c r="O16" t="n">
-        <v>99</v>
-      </c>
-      <c r="P16" t="n">
-        <v>208</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1611</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3963</v>
-      </c>
-      <c r="S16" t="n">
-        <v>23778</v>
-      </c>
-      <c r="T16" t="n">
-        <v>35</v>
-      </c>
-      <c r="U16" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>449</v>
-      </c>
-      <c r="C17" t="n">
-        <v>611</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1311</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>609</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4507</v>
-      </c>
-      <c r="H17" t="n">
-        <v>51</v>
-      </c>
-      <c r="I17" t="n">
-        <v>217</v>
-      </c>
-      <c r="J17" t="n">
-        <v>176</v>
-      </c>
-      <c r="K17" t="n">
-        <v>387</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9156</v>
-      </c>
-      <c r="M17" t="n">
-        <v>38</v>
-      </c>
-      <c r="N17" t="n">
-        <v>238</v>
-      </c>
-      <c r="O17" t="n">
-        <v>84</v>
-      </c>
-      <c r="P17" t="n">
-        <v>264</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1970</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4465</v>
-      </c>
-      <c r="S17" t="n">
-        <v>26575</v>
-      </c>
-      <c r="T17" t="n">
-        <v>34</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>425</v>
-      </c>
-      <c r="C18" t="n">
-        <v>620</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1463</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>558</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4013</v>
-      </c>
-      <c r="H18" t="n">
-        <v>77</v>
-      </c>
-      <c r="I18" t="n">
-        <v>245</v>
-      </c>
-      <c r="J18" t="n">
-        <v>268</v>
-      </c>
-      <c r="K18" t="n">
-        <v>378</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9399</v>
-      </c>
-      <c r="M18" t="n">
-        <v>96</v>
-      </c>
-      <c r="N18" t="n">
-        <v>371</v>
-      </c>
-      <c r="O18" t="n">
-        <v>97</v>
-      </c>
-      <c r="P18" t="n">
-        <v>311</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2444</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4631</v>
-      </c>
-      <c r="S18" t="n">
-        <v>27900</v>
-      </c>
-      <c r="T18" t="n">
-        <v>26</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>517</v>
-      </c>
-      <c r="C19" t="n">
-        <v>703</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3169</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>706</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4986</v>
-      </c>
-      <c r="H19" t="n">
-        <v>114</v>
-      </c>
-      <c r="I19" t="n">
-        <v>349</v>
-      </c>
-      <c r="J19" t="n">
-        <v>633</v>
-      </c>
-      <c r="K19" t="n">
-        <v>737</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12283</v>
-      </c>
-      <c r="M19" t="n">
-        <v>203</v>
-      </c>
-      <c r="N19" t="n">
-        <v>476</v>
-      </c>
-      <c r="O19" t="n">
-        <v>156</v>
-      </c>
-      <c r="P19" t="n">
-        <v>372</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3391</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5087</v>
-      </c>
-      <c r="S19" t="n">
-        <v>35652</v>
-      </c>
-      <c r="T19" t="n">
-        <v>26</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>754</v>
-      </c>
-      <c r="C20" t="n">
-        <v>854</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7222</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>741</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H20" t="n">
-        <v>83</v>
-      </c>
-      <c r="I20" t="n">
-        <v>485</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1449</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1053</v>
-      </c>
-      <c r="L20" t="n">
-        <v>22853</v>
-      </c>
-      <c r="M20" t="n">
-        <v>266</v>
-      </c>
-      <c r="N20" t="n">
-        <v>749</v>
-      </c>
-      <c r="O20" t="n">
-        <v>151</v>
-      </c>
-      <c r="P20" t="n">
-        <v>284</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5819</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9099</v>
-      </c>
-      <c r="S20" t="n">
-        <v>60533</v>
-      </c>
-      <c r="T20" t="n">
-        <v>46</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>591</v>
-      </c>
-      <c r="C21" t="n">
-        <v>835</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4295</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>495</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5396</v>
-      </c>
-      <c r="H21" t="n">
-        <v>111</v>
-      </c>
-      <c r="I21" t="n">
-        <v>361</v>
-      </c>
-      <c r="J21" t="n">
-        <v>557</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1050</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13837</v>
-      </c>
-      <c r="M21" t="n">
-        <v>258</v>
-      </c>
-      <c r="N21" t="n">
-        <v>804</v>
-      </c>
-      <c r="O21" t="n">
-        <v>143</v>
-      </c>
-      <c r="P21" t="n">
-        <v>295</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5183</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5777</v>
-      </c>
-      <c r="S21" t="n">
-        <v>40888</v>
-      </c>
-      <c r="T21" t="n">
-        <v>31</v>
-      </c>
-      <c r="U21" t="n">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>592</v>
-      </c>
-      <c r="C22" t="n">
-        <v>804</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3521</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>493</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3732</v>
-      </c>
-      <c r="H22" t="n">
-        <v>109</v>
-      </c>
-      <c r="I22" t="n">
-        <v>447</v>
-      </c>
-      <c r="J22" t="n">
-        <v>602</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1190</v>
-      </c>
-      <c r="L22" t="n">
-        <v>10812</v>
-      </c>
-      <c r="M22" t="n">
-        <v>210</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1407</v>
-      </c>
-      <c r="O22" t="n">
-        <v>223</v>
-      </c>
-      <c r="P22" t="n">
-        <v>260</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>6252</v>
-      </c>
-      <c r="R22" t="n">
-        <v>7513</v>
-      </c>
-      <c r="S22" t="n">
-        <v>38570</v>
-      </c>
-      <c r="T22" t="n">
-        <v>46</v>
-      </c>
-      <c r="U22" t="n">
-        <v>356</v>
-      </c>
+        <v>38497</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
